--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/财务费用.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/财务费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.29201</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.95306</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35978</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00334</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.98545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.22853</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.23079</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.23847</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5978599999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.02057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.6035199999999999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.2104</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.73415</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.31408</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.33896</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.54965</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.76742</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.00895</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.37014</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.57936</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.26347</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4.33462</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.87015</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.99433</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.03545</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>72.03440000000001</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>7.32858</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.01571</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.12011</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>4.06619</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8.1768</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.3754</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.8471</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>4.45465</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.69559</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2.05234</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.3614</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.72805</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.51499</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63274</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00626</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.36296</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.37073</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.85003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.09432</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.00092</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.77751</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41902</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.99743</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.07447</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.80986</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.47278</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.78193</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.52779</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.16532</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.00742</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.02647</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.5466800000000001</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.69967</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.42739</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6.11051</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.17777</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.47917</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-9.000000000000001e-05</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>103.73028</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12.0812</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.09082</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3.4397</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.82612</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>10.37827</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.48343</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.57722</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>6.50955</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2.187</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.56625</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.52832</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.41808</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.75307</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.77452</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00473</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.11552</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.594110000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.28721</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.84108</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.2213</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.06355</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.62232</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.28289</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.84995</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.71664</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.59302</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.79718</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.51456</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>1.3714</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00122</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.12249</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.24842</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.09974</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2.33798</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.152150000000001</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.92791</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.23199</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>138.55385</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17.16548</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.17244</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>4.65235</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.72069</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12.7237</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.69531</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>3.49641</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>8.55411</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2.30631</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.36002</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.764</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
